--- a/curvefit/VAE/cv_SANS/S1.xlsx
+++ b/curvefit/VAE/cv_SANS/S1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\Project\contrast_variation\cv_SANS\curvefit\VAE\cv_SANS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1943415-8678-4F29-8EDB-EE1F74C3D87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD41F54-D865-4493-8E95-F85D99A68712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{37BAC6F9-706E-46F8-86F4-8BA689A019F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37BAC6F9-706E-46F8-86F4-8BA689A019F1}"/>
   </bookViews>
   <sheets>
     <sheet name="S(Q)" sheetId="1" r:id="rId1"/>
@@ -438,15 +438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A7B71E-80D7-40D2-8AF6-78A765241BB8}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -457,884 +457,1606 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.2</v>
+        <v>0.65228390999999997</v>
       </c>
       <c r="B2" s="1">
-        <v>0.2</v>
+        <v>5.5230260000000003E-3</v>
       </c>
       <c r="C2" s="1">
-        <v>4.8741195350885301E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.0288596152469003E-2</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.4</v>
+        <v>0.67284368999999999</v>
       </c>
       <c r="B3" s="1">
-        <v>0.4</v>
+        <v>5.6971102000000001E-3</v>
       </c>
       <c r="C3" s="1">
-        <v>5.5447362363338401E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.08500996776975E-2</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.59999999999999898</v>
+        <v>0.69405143999999996</v>
       </c>
       <c r="B4" s="1">
-        <v>0.59999999999999898</v>
+        <v>5.8766807999999999E-3</v>
       </c>
       <c r="C4" s="1">
-        <v>6.06311447918415E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.1429299493973903E-2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.8</v>
+        <v>0.71592772000000005</v>
       </c>
       <c r="B5" s="1">
-        <v>0.8</v>
+        <v>6.061912E-3</v>
       </c>
       <c r="C5" s="1">
-        <v>6.6250488162040697E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.2026757340633898E-2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0.73849343999999995</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>6.2529808000000003E-3</v>
       </c>
       <c r="C6" s="1">
-        <v>7.0554010570049203E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.2643043968874004E-2</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1.19999999999999</v>
+        <v>0.76177055000000005</v>
       </c>
       <c r="B7" s="1">
-        <v>1.19999999999999</v>
+        <v>6.4500729000000001E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>7.9079464077949496E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.3278758667450599E-2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1.3999999999999899</v>
+        <v>0.78578132000000001</v>
       </c>
       <c r="B8" s="1">
-        <v>1.3999999999999899</v>
+        <v>6.6533768999999998E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>8.6882367730140603E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.3934509736981296E-2</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1.6</v>
+        <v>0.81054884000000005</v>
       </c>
       <c r="B9" s="1">
-        <v>1.6</v>
+        <v>6.8630888000000001E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>9.5987267792224801E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.4669639799640799E-2</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1.8</v>
+        <v>0.83609699999999998</v>
       </c>
       <c r="B10" s="1">
-        <v>1.8</v>
+        <v>7.0794107999999998E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>0.105856709182262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.5509570501901801E-2</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>0.86245059999999996</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>7.3025520000000003E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>0.12025311589241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.6375978436233302E-2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2.2000000000000002</v>
+        <v>0.88963460999999999</v>
       </c>
       <c r="B12" s="1">
-        <v>2.2000000000000002</v>
+        <v>7.5327251000000001E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>0.13598944246768899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.7269689886100006E-2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2.3999999999999901</v>
+        <v>0.91767560999999997</v>
       </c>
       <c r="B13" s="1">
-        <v>2.3999999999999901</v>
+        <v>7.7701541999999997E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>0.154688671231269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.8191574528408905E-2</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2.6</v>
+        <v>0.94660049999999996</v>
       </c>
       <c r="B14" s="1">
-        <v>2.6</v>
+        <v>8.0150672999999995E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>0.17506663501262601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.9142518312607801E-2</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2.7999999999999901</v>
+        <v>0.97643696999999996</v>
       </c>
       <c r="B15" s="1">
-        <v>2.7999999999999901</v>
+        <v>8.2676988000000007E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>0.203036159276962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.0123430692925898E-2</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>1.0072140000000001</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>8.5282940000000005E-3</v>
       </c>
       <c r="C16" s="1">
-        <v>0.237559840083122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.1175414262101E-2</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3.2</v>
+        <v>1.0389607999999999</v>
       </c>
       <c r="B17" s="1">
-        <v>3.2</v>
+        <v>8.7971017000000006E-3</v>
       </c>
       <c r="C17" s="1">
-        <v>0.27675938606262201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.2395824659390706E-2</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>3.3999999999999901</v>
+        <v>1.0717087000000001</v>
       </c>
       <c r="B18" s="1">
-        <v>3.3999999999999901</v>
+        <v>9.0743843000000001E-3</v>
       </c>
       <c r="C18" s="1">
-        <v>0.323884427547454</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.3654712465873198E-2</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3.6</v>
+        <v>1.1054884</v>
       </c>
       <c r="B19" s="1">
-        <v>3.6</v>
+        <v>9.3604046999999999E-3</v>
       </c>
       <c r="C19" s="1">
-        <v>0.38257828354835499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.4953270058404894E-2</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3.7999999999999901</v>
+        <v>1.1403331000000001</v>
       </c>
       <c r="B20" s="1">
-        <v>3.7999999999999901</v>
+        <v>9.6554420999999998E-3</v>
       </c>
       <c r="C20" s="1">
-        <v>0.45727282762527399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.6292765923003103E-2</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>1.1762760000000001</v>
       </c>
       <c r="B21" s="1">
-        <v>4</v>
+        <v>9.9597777999999998E-3</v>
       </c>
       <c r="C21" s="1">
-        <v>0.541756451129913</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.7674477002258602E-2</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>4.2</v>
+        <v>1.2133522000000001</v>
       </c>
       <c r="B22" s="1">
-        <v>4.2</v>
+        <v>1.027371E-2</v>
       </c>
       <c r="C22" s="1">
-        <v>0.64759951829910201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.9101220190582494E-2</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>4.4000000000000004</v>
+        <v>1.2515961</v>
       </c>
       <c r="B23" s="1">
-        <v>4.4000000000000004</v>
+        <v>1.0597530000000001E-2</v>
       </c>
       <c r="C23" s="1">
-        <v>0.76860237121581998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.0575584078483198E-2</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>4.5999999999999899</v>
+        <v>1.2910459000000001</v>
       </c>
       <c r="B24" s="1">
-        <v>4.5999999999999899</v>
+        <v>1.093156E-2</v>
       </c>
       <c r="C24" s="1">
-        <v>0.91695010662078802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.2096434874033994E-2</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>4.7999999999999901</v>
+        <v>1.3317394</v>
       </c>
       <c r="B25" s="1">
-        <v>4.7999999999999901</v>
+        <v>1.1276120000000001E-2</v>
       </c>
       <c r="C25" s="1">
-        <v>1.0880167484283401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.3665231256084993E-2</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>1.3737154</v>
       </c>
       <c r="B26" s="1">
-        <v>5</v>
+        <v>1.1631539999999999E-2</v>
       </c>
       <c r="C26" s="1">
-        <v>1.2505013942718499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.5283470066595396E-2</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>5.2</v>
+        <v>1.4170141999999999</v>
       </c>
       <c r="B27" s="1">
-        <v>5.2</v>
+        <v>1.1998160000000001E-2</v>
       </c>
       <c r="C27" s="1">
-        <v>1.3498883247375399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.7101250857735499E-2</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>5.4</v>
+        <v>1.4616783</v>
       </c>
       <c r="B28" s="1">
-        <v>5.4</v>
+        <v>1.237634E-2</v>
       </c>
       <c r="C28" s="1">
-        <v>1.39311718940734</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.9213072348080805E-2</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>5.5999999999999899</v>
+        <v>1.5077502</v>
       </c>
       <c r="B29" s="1">
-        <v>5.5999999999999899</v>
+        <v>1.276644E-2</v>
       </c>
       <c r="C29" s="1">
-        <v>1.4117505550384499</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.1391457082155902E-2</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>5.7999999999999901</v>
+        <v>1.5552735</v>
       </c>
       <c r="B30" s="1">
-        <v>5.7999999999999901</v>
+        <v>1.3168829999999999E-2</v>
       </c>
       <c r="C30" s="1">
-        <v>1.3709896802902199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.3638469721869094E-2</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>6</v>
+        <v>1.6042955000000001</v>
       </c>
       <c r="B31" s="1">
-        <v>6</v>
+        <v>1.3583909999999999E-2</v>
       </c>
       <c r="C31" s="1">
-        <v>1.3196768760681099</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.5987916159471803E-2</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>6.2</v>
+        <v>1.6548624000000001</v>
       </c>
       <c r="B32" s="1">
-        <v>6.2</v>
+        <v>1.401207E-2</v>
       </c>
       <c r="C32" s="1">
-        <v>1.2487423419952299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.8750541357776903E-2</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>6.4</v>
+        <v>1.7070223</v>
       </c>
       <c r="B33" s="1">
-        <v>6.4</v>
+        <v>1.445372E-2</v>
       </c>
       <c r="C33" s="1">
-        <v>1.16394019126892</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.10160020354567199</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>6.5999999999999899</v>
+        <v>1.7608275</v>
       </c>
       <c r="B34" s="1">
-        <v>6.5999999999999899</v>
+        <v>1.49093E-2</v>
       </c>
       <c r="C34" s="1">
-        <v>1.10079622268676</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.104539745066162</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>6.7999999999999901</v>
+        <v>1.8163275000000001</v>
       </c>
       <c r="B35" s="1">
-        <v>6.7999999999999901</v>
+        <v>1.5379230000000001E-2</v>
       </c>
       <c r="C35" s="1">
-        <v>1.0374326705932599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.107730538976339</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7</v>
+        <v>1.8735776</v>
       </c>
       <c r="B36" s="1">
-        <v>7</v>
+        <v>1.5863979E-2</v>
       </c>
       <c r="C36" s="1">
-        <v>1.00098752975463</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.111414626524402</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7.2</v>
+        <v>1.9326326</v>
       </c>
       <c r="B37" s="1">
-        <v>7.2</v>
+        <v>1.6364009999999998E-2</v>
       </c>
       <c r="C37" s="1">
-        <v>0.96377736330032304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.115214850427957</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7.4</v>
+        <v>1.9935489</v>
       </c>
       <c r="B38" s="1">
-        <v>7.4</v>
+        <v>1.6879801E-2</v>
       </c>
       <c r="C38" s="1">
-        <v>0.93568819761276201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.119134848795655</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7.5999999999999899</v>
+        <v>2.0563840999999998</v>
       </c>
       <c r="B39" s="1">
-        <v>7.5999999999999899</v>
+        <v>1.7411838999999998E-2</v>
       </c>
       <c r="C39" s="1">
-        <v>0.92554867267608598</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.123862086359788</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7.7999999999999901</v>
+        <v>2.1212013000000001</v>
       </c>
       <c r="B40" s="1">
-        <v>7.7999999999999901</v>
+        <v>1.796066E-2</v>
       </c>
       <c r="C40" s="1">
-        <v>0.90921956300735396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.128819137707021</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>8</v>
+        <v>2.1880603000000001</v>
       </c>
       <c r="B41" s="1">
-        <v>8</v>
+        <v>1.8526770000000001E-2</v>
       </c>
       <c r="C41" s="1">
-        <v>0.90597987174987704</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.13393234712395399</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>8.1999999999999904</v>
+        <v>2.2570274000000001</v>
       </c>
       <c r="B42" s="1">
-        <v>8.1999999999999904</v>
+        <v>1.9110729999999999E-2</v>
       </c>
       <c r="C42" s="1">
-        <v>0.90613770484924305</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.14018378433637199</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>8.4</v>
+        <v>2.3281679</v>
       </c>
       <c r="B43" s="1">
-        <v>8.4</v>
+        <v>1.9713090999999999E-2</v>
       </c>
       <c r="C43" s="1">
-        <v>0.90939712524413996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.146843209373127</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>8.5999999999999908</v>
+        <v>2.4015507999999999</v>
       </c>
       <c r="B44" s="1">
-        <v>8.5999999999999908</v>
+        <v>2.0334438999999999E-2</v>
       </c>
       <c r="C44" s="1">
-        <v>0.90937209129333396</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.15374148146064001</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>8.8000000000000007</v>
+        <v>2.4772463</v>
       </c>
       <c r="B45" s="1">
-        <v>8.8000000000000007</v>
+        <v>2.097537E-2</v>
       </c>
       <c r="C45" s="1">
-        <v>0.92459994554519598</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.16223929302083501</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>9</v>
+        <v>2.5553287999999998</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>2.1636510000000001E-2</v>
       </c>
       <c r="C46" s="1">
-        <v>0.93275910615920998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.171005055930296</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>9.1999999999999904</v>
+        <v>2.6358712</v>
       </c>
       <c r="B47" s="1">
-        <v>9.1999999999999904</v>
+        <v>2.2318481000000001E-2</v>
       </c>
       <c r="C47" s="1">
-        <v>0.94895601272582997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.18081763226321099</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>9.4</v>
+        <v>2.7189527</v>
       </c>
       <c r="B48" s="1">
-        <v>9.4</v>
+        <v>2.3021949E-2</v>
       </c>
       <c r="C48" s="1">
-        <v>0.96051394939422596</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.19192949064373699</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>9.5999999999999908</v>
+        <v>2.8046541</v>
       </c>
       <c r="B49" s="1">
-        <v>9.5999999999999908</v>
+        <v>2.3747601E-2</v>
       </c>
       <c r="C49" s="1">
-        <v>0.97420454025268499</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.20353041129830199</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>9.8000000000000007</v>
+        <v>2.8930549999999999</v>
       </c>
       <c r="B50" s="1">
-        <v>9.8000000000000007</v>
+        <v>2.4496110000000001E-2</v>
       </c>
       <c r="C50" s="1">
-        <v>0.99690920114517201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.21798778275330799</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>10</v>
+        <v>2.9842431999999999</v>
       </c>
       <c r="B51" s="1">
-        <v>10</v>
+        <v>2.5268219000000001E-2</v>
       </c>
       <c r="C51" s="1">
-        <v>1.00129902362823</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.23290097983692601</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>10.1999999999999</v>
+        <v>3.078306</v>
       </c>
       <c r="B52" s="1">
-        <v>10.1999999999999</v>
+        <v>2.6064670000000002E-2</v>
       </c>
       <c r="C52" s="1">
-        <v>1.02217710018157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.25104966945436002</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>10.4</v>
+        <v>3.1753333000000001</v>
       </c>
       <c r="B53" s="1">
-        <v>10.4</v>
+        <v>2.6886218999999999E-2</v>
       </c>
       <c r="C53" s="1">
-        <v>1.03063952922821</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.270344276000754</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>10.5999999999999</v>
+        <v>3.2754180000000002</v>
       </c>
       <c r="B54" s="1">
-        <v>10.5999999999999</v>
+        <v>2.7733659000000001E-2</v>
       </c>
       <c r="C54" s="1">
-        <v>1.02638304233551</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.29371536917851598</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>10.8</v>
+        <v>3.3786588000000002</v>
       </c>
       <c r="B55" s="1">
-        <v>10.8</v>
+        <v>2.8607819E-2</v>
       </c>
       <c r="C55" s="1">
-        <v>1.0315016508102399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.318993527525187</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>11</v>
+        <v>3.4851519999999998</v>
       </c>
       <c r="B56" s="1">
-        <v>11</v>
+        <v>2.9509520000000001E-2</v>
       </c>
       <c r="C56" s="1">
-        <v>1.0358852148055999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.34946028675636798</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>11.1999999999999</v>
+        <v>3.5950027000000002</v>
       </c>
       <c r="B57" s="1">
-        <v>11.1999999999999</v>
+        <v>3.0439651000000002E-2</v>
       </c>
       <c r="C57" s="1">
-        <v>1.0325579643249501</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.382023134365368</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>11.4</v>
+        <v>3.6538767999999999</v>
       </c>
       <c r="B58" s="1">
-        <v>11.4</v>
+        <v>3.0938150000000001E-2</v>
       </c>
       <c r="C58" s="1">
-        <v>1.02956974506378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.40281911476409499</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>11.5999999999999</v>
+        <v>3.7083162999999999</v>
       </c>
       <c r="B59" s="1">
-        <v>11.5999999999999</v>
+        <v>3.1399100999999999E-2</v>
       </c>
       <c r="C59" s="1">
-        <v>1.0248498916625901</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.42233546293170099</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>11.8</v>
+        <v>3.7861755000000001</v>
       </c>
       <c r="B60" s="1">
-        <v>11.8</v>
+        <v>3.2058350999999999E-2</v>
       </c>
       <c r="C60" s="1">
-        <v>1.0162307024002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.45024766330935001</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>12</v>
+        <v>3.8252014999999999</v>
       </c>
       <c r="B61" s="1">
-        <v>12</v>
+        <v>3.2388791E-2</v>
       </c>
       <c r="C61" s="1">
-        <v>1.0143563747405999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.46650737481399601</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>12.1999999999999</v>
+        <v>3.9232627999999998</v>
       </c>
       <c r="B62" s="1">
-        <v>12.1999999999999</v>
+        <v>3.3219099000000002E-2</v>
       </c>
       <c r="C62" s="1">
-        <v>1.00933372974395</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.51049125412589502</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>12.4</v>
+        <v>3.9457697999999999</v>
       </c>
       <c r="B63" s="1">
-        <v>12.4</v>
+        <v>3.3409670000000002E-2</v>
       </c>
       <c r="C63" s="1">
-        <v>1.0060175657272299</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.52058636786254497</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>12.5999999999999</v>
+        <v>4.0653157000000002</v>
       </c>
       <c r="B64" s="1">
-        <v>12.5999999999999</v>
+        <v>3.4421891000000003E-2</v>
       </c>
       <c r="C64" s="1">
-        <v>0.99537229537963801</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.58227109931938004</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>12.8</v>
+        <v>4.0701388999999999</v>
       </c>
       <c r="B65" s="1">
-        <v>12.8</v>
+        <v>3.4462731000000003E-2</v>
       </c>
       <c r="C65" s="1">
-        <v>0.99312508106231601</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.58503006092416399</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>13</v>
+        <v>4.2125105999999999</v>
       </c>
       <c r="B66" s="1">
-        <v>13</v>
+        <v>3.566822E-2</v>
       </c>
       <c r="C66" s="1">
-        <v>0.99352502822875899</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.66782009962625899</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>13.1999999999999</v>
+        <v>4.3650355000000003</v>
       </c>
       <c r="B67" s="1">
-        <v>13.1999999999999</v>
+        <v>3.6959682000000001E-2</v>
       </c>
       <c r="C67" s="1">
-        <v>0.99007254838943404</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.77156572514525801</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>13.4</v>
+        <v>4.5230826999999998</v>
       </c>
       <c r="B68" s="1">
-        <v>13.4</v>
+        <v>3.8297899000000003E-2</v>
       </c>
       <c r="C68" s="1">
-        <v>0.98819905519485396</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.88517719193195898</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>13.5999999999999</v>
+        <v>4.6868528999999999</v>
       </c>
       <c r="B69" s="1">
-        <v>13.5999999999999</v>
+        <v>3.9684578999999998E-2</v>
       </c>
       <c r="C69" s="1">
-        <v>0.98659837245941095</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0048919125437701</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>13.8</v>
+        <v>4.8565525999999997</v>
       </c>
       <c r="B70" s="1">
-        <v>13.8</v>
+        <v>4.1121459999999999E-2</v>
       </c>
       <c r="C70" s="1">
-        <v>0.99219459295272805</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1245847850896999</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>14</v>
+        <v>5.0323967999999999</v>
       </c>
       <c r="B71" s="1">
-        <v>14</v>
+        <v>4.2610370000000002E-2</v>
       </c>
       <c r="C71" s="1">
-        <v>0.99154585599899203</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2344556686966901</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>14.1999999999999</v>
+        <v>5.2146077000000002</v>
       </c>
       <c r="B72" s="1">
-        <v>14.1999999999999</v>
+        <v>4.4153191000000001E-2</v>
       </c>
       <c r="C72" s="1">
-        <v>0.98975247144698997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3236425272131001</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>14.4</v>
+        <v>5.4034161999999997</v>
       </c>
       <c r="B73" s="1">
-        <v>14.4</v>
+        <v>4.575187E-2</v>
       </c>
       <c r="C73" s="1">
-        <v>0.99154084920883101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3818750501460999</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>14.5999999999999</v>
+        <v>5.5990615000000004</v>
       </c>
       <c r="B74" s="1">
-        <v>14.5999999999999</v>
+        <v>4.7408438999999997E-2</v>
       </c>
       <c r="C74" s="1">
-        <v>0.99475848674774103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3976544643334201</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>14.8</v>
+        <v>5.8017893000000003</v>
       </c>
       <c r="B75" s="1">
-        <v>14.8</v>
+        <v>4.9124978E-2</v>
       </c>
       <c r="C75" s="1">
-        <v>1.00144875049591</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.37246875120221</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>15</v>
+        <v>6.0118584999999998</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>5.0903681999999999E-2</v>
       </c>
       <c r="C76" s="1">
-        <v>1.00424551963806</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3139224055952801</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>15.1999999999999</v>
+        <v>6.2295331999999997</v>
       </c>
       <c r="B77" s="1">
-        <v>15.1999999999999</v>
+        <v>5.274678E-2</v>
       </c>
       <c r="C77" s="1">
-        <v>1.00573635101318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2395834676209601</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>15.4</v>
+        <v>6.4550891000000004</v>
       </c>
       <c r="B78" s="1">
-        <v>15.4</v>
+        <v>5.4656610000000001E-2</v>
       </c>
       <c r="C78" s="1">
-        <v>0.99696904420852595</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1588752310059001</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>15.5999999999999</v>
+        <v>6.6888132000000002</v>
       </c>
       <c r="B79" s="1">
-        <v>15.5999999999999</v>
+        <v>5.6635600000000001E-2</v>
       </c>
       <c r="C79" s="1">
-        <v>1.00142645835876</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0815419793468699</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>15.8</v>
+        <v>6.9309992999999999</v>
       </c>
       <c r="B80" s="1">
-        <v>15.8</v>
+        <v>5.8686242E-2</v>
       </c>
       <c r="C80" s="1">
-        <v>1.00170314311981</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0167427748440101</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>16</v>
+        <v>7.1819534000000003</v>
       </c>
       <c r="B81" s="1">
-        <v>16</v>
+        <v>6.0811121000000003E-2</v>
       </c>
       <c r="C81" s="1">
-        <v>1.00095391273498</v>
+        <v>0.96689902884114998</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>7.4419950999999998</v>
+      </c>
+      <c r="B82">
+        <v>6.3012949999999998E-2</v>
+      </c>
+      <c r="C82">
+        <v>0.93516555079277797</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7.7114514999999999</v>
+      </c>
+      <c r="B83">
+        <v>6.5294497000000007E-2</v>
+      </c>
+      <c r="C83">
+        <v>0.91577724219759404</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>7.9906639999999998</v>
+      </c>
+      <c r="B84">
+        <v>6.7658648000000002E-2</v>
+      </c>
+      <c r="C84">
+        <v>0.90539655257213603</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8.2799882999999994</v>
+      </c>
+      <c r="B85">
+        <v>7.0108413999999994E-2</v>
+      </c>
+      <c r="C85">
+        <v>0.90571622738222701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>8.5797863000000003</v>
+      </c>
+      <c r="B86">
+        <v>7.2646871000000002E-2</v>
+      </c>
+      <c r="C86">
+        <v>0.91298911149596695</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>8.8904390000000006</v>
+      </c>
+      <c r="B87">
+        <v>7.5277231999999999E-2</v>
+      </c>
+      <c r="C87">
+        <v>0.92769675696255505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>9.2123404000000004</v>
+      </c>
+      <c r="B88">
+        <v>7.8002840000000004E-2</v>
+      </c>
+      <c r="C88">
+        <v>0.947672314681271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>9.5458975000000006</v>
+      </c>
+      <c r="B89">
+        <v>8.0827139000000006E-2</v>
+      </c>
+      <c r="C89">
+        <v>0.97362500120415396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>9.8915310000000005</v>
+      </c>
+      <c r="B90">
+        <v>8.3753690000000006E-2</v>
+      </c>
+      <c r="C90">
+        <v>0.998530748965749</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>10.24968</v>
+      </c>
+      <c r="B91">
+        <v>8.6786211000000002E-2</v>
+      </c>
+      <c r="C91">
+        <v>1.01885160755141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>10.620796</v>
+      </c>
+      <c r="B92">
+        <v>8.9928530000000007E-2</v>
+      </c>
+      <c r="C92">
+        <v>1.03135286470228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>11.005349000000001</v>
+      </c>
+      <c r="B93">
+        <v>9.3184628000000005E-2</v>
+      </c>
+      <c r="C93">
+        <v>1.03409373286134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>11.403828000000001</v>
+      </c>
+      <c r="B94">
+        <v>9.6558622999999996E-2</v>
+      </c>
+      <c r="C94">
+        <v>1.0280792116250601</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>11.816735</v>
+      </c>
+      <c r="B95">
+        <v>0.1000548</v>
+      </c>
+      <c r="C95">
+        <v>1.0193222298906801</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>12.244585000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.10367750000000001</v>
+      </c>
+      <c r="C96">
+        <v>1.00710067936576</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>12.68793</v>
+      </c>
+      <c r="B97">
+        <v>0.1074314</v>
+      </c>
+      <c r="C97">
+        <v>0.99712129044034703</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>13.147338</v>
+      </c>
+      <c r="B98">
+        <v>0.1113213</v>
+      </c>
+      <c r="C98">
+        <v>0.99028624639778995</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>13.623362999999999</v>
+      </c>
+      <c r="B99">
+        <v>0.11535189999999999</v>
+      </c>
+      <c r="C99">
+        <v>0.98917623658144604</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>14.116642000000001</v>
+      </c>
+      <c r="B100">
+        <v>0.1195286</v>
+      </c>
+      <c r="C100">
+        <v>0.99060812895264505</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>14.627767</v>
+      </c>
+      <c r="B101">
+        <v>0.12385640000000001</v>
+      </c>
+      <c r="C101">
+        <v>0.99729511205227905</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>15.157397</v>
+      </c>
+      <c r="B102">
+        <v>0.12834090000000001</v>
+      </c>
+      <c r="C102">
+        <v>1.0014424825186099</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>15.706220999999999</v>
+      </c>
+      <c r="B103">
+        <v>0.13298789999999999</v>
+      </c>
+      <c r="C103">
+        <v>1.00178673097997</v>
       </c>
     </row>
   </sheetData>
@@ -58452,7 +59174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8840F7E2-5CE9-4EF6-AC84-B046389B09EF}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
